--- a/TEST 2.xlsx
+++ b/TEST 2.xlsx
@@ -367,7 +367,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+      <selection activeCell="B1" sqref="B1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
